--- a/natmiOut/OldD4/LR-pairs_lrc2p/Tnf-Tnfrsf21.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Tnf-Tnfrsf21.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.41566844942842</v>
+        <v>5.349936666666667</v>
       </c>
       <c r="H2">
-        <v>4.41566844942842</v>
+        <v>16.04981</v>
       </c>
       <c r="I2">
-        <v>0.03764075180907379</v>
+        <v>0.04148245374559899</v>
       </c>
       <c r="J2">
-        <v>0.03764075180907379</v>
+        <v>0.04148245374559899</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.3581184800661</v>
+        <v>11.465689</v>
       </c>
       <c r="N2">
-        <v>11.3581184800661</v>
+        <v>34.397067</v>
       </c>
       <c r="O2">
-        <v>0.1161000411492494</v>
+        <v>0.1125836808441207</v>
       </c>
       <c r="P2">
-        <v>0.1161000411492494</v>
+        <v>0.1279391038575984</v>
       </c>
       <c r="Q2">
-        <v>50.15368541729776</v>
+        <v>61.34070998969667</v>
       </c>
       <c r="R2">
-        <v>50.15368541729776</v>
+        <v>552.06638990727</v>
       </c>
       <c r="S2">
-        <v>0.004370092833922151</v>
+        <v>0.004670247333125517</v>
       </c>
       <c r="T2">
-        <v>0.004370092833922151</v>
+        <v>0.005307227958026211</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.41566844942842</v>
+        <v>5.349936666666667</v>
       </c>
       <c r="H3">
-        <v>4.41566844942842</v>
+        <v>16.04981</v>
       </c>
       <c r="I3">
-        <v>0.03764075180907379</v>
+        <v>0.04148245374559899</v>
       </c>
       <c r="J3">
-        <v>0.03764075180907379</v>
+        <v>0.04148245374559899</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.16045817192198</v>
+        <v>1.399706666666667</v>
       </c>
       <c r="N3">
-        <v>1.16045817192198</v>
+        <v>4.199120000000001</v>
       </c>
       <c r="O3">
-        <v>0.01186193309645248</v>
+        <v>0.01374397374945266</v>
       </c>
       <c r="P3">
-        <v>0.01186193309645248</v>
+        <v>0.01561853078317749</v>
       </c>
       <c r="Q3">
-        <v>5.124198536637268</v>
+        <v>7.48834201857778</v>
       </c>
       <c r="R3">
-        <v>5.124198536637268</v>
+        <v>67.39507816720001</v>
       </c>
       <c r="S3">
-        <v>0.000446492079659406</v>
+        <v>0.0005701337553423967</v>
       </c>
       <c r="T3">
-        <v>0.000446492079659406</v>
+        <v>0.0006478949807873743</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.41566844942842</v>
+        <v>5.349936666666667</v>
       </c>
       <c r="H4">
-        <v>4.41566844942842</v>
+        <v>16.04981</v>
       </c>
       <c r="I4">
-        <v>0.03764075180907379</v>
+        <v>0.04148245374559899</v>
       </c>
       <c r="J4">
-        <v>0.03764075180907379</v>
+        <v>0.04148245374559899</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.2389097859197</v>
+        <v>26.364677</v>
       </c>
       <c r="N4">
-        <v>23.2389097859197</v>
+        <v>79.094031</v>
       </c>
       <c r="O4">
-        <v>0.2375427221633693</v>
+        <v>0.2588795475724425</v>
       </c>
       <c r="P4">
-        <v>0.2375427221633693</v>
+        <v>0.2941884389917637</v>
       </c>
       <c r="Q4">
-        <v>102.615320740799</v>
+        <v>141.0493521871234</v>
       </c>
       <c r="R4">
-        <v>102.615320740799</v>
+        <v>1269.44416968411</v>
       </c>
       <c r="S4">
-        <v>0.008941286649003156</v>
+        <v>0.01073895885785544</v>
       </c>
       <c r="T4">
-        <v>0.008941286649003156</v>
+        <v>0.01220365831296581</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.41566844942842</v>
+        <v>5.349936666666667</v>
       </c>
       <c r="H5">
-        <v>4.41566844942842</v>
+        <v>16.04981</v>
       </c>
       <c r="I5">
-        <v>0.03764075180907379</v>
+        <v>0.04148245374559899</v>
       </c>
       <c r="J5">
-        <v>0.03764075180907379</v>
+        <v>0.04148245374559899</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.7798056335924</v>
+        <v>25.94195566666667</v>
       </c>
       <c r="N5">
-        <v>25.7798056335924</v>
+        <v>77.825867</v>
       </c>
       <c r="O5">
-        <v>0.2635151675986313</v>
+        <v>0.2547287700938277</v>
       </c>
       <c r="P5">
-        <v>0.2635151675986313</v>
+        <v>0.2894715320036049</v>
       </c>
       <c r="Q5">
-        <v>113.835074368651</v>
+        <v>138.7878198261411</v>
       </c>
       <c r="R5">
-        <v>113.835074368651</v>
+        <v>1249.09037843527</v>
       </c>
       <c r="S5">
-        <v>0.009918909021506564</v>
+        <v>0.01056677442309053</v>
       </c>
       <c r="T5">
-        <v>0.009918909021506564</v>
+        <v>0.01200798943700722</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.41566844942842</v>
+        <v>5.349936666666667</v>
       </c>
       <c r="H6">
-        <v>4.41566844942842</v>
+        <v>16.04981</v>
       </c>
       <c r="I6">
-        <v>0.03764075180907379</v>
+        <v>0.04148245374559899</v>
       </c>
       <c r="J6">
-        <v>0.03764075180907379</v>
+        <v>0.04148245374559899</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>36.2931511189976</v>
+        <v>36.6694545</v>
       </c>
       <c r="N6">
-        <v>36.2931511189976</v>
+        <v>73.338909</v>
       </c>
       <c r="O6">
-        <v>0.3709801359922975</v>
+        <v>0.3600640277401564</v>
       </c>
       <c r="P6">
-        <v>0.3709801359922975</v>
+        <v>0.2727823943638554</v>
       </c>
       <c r="Q6">
-        <v>160.2585223264955</v>
+        <v>196.179259176215</v>
       </c>
       <c r="R6">
-        <v>160.2585223264955</v>
+        <v>1177.07555505729</v>
       </c>
       <c r="S6">
-        <v>0.01396397122498251</v>
+        <v>0.01493633937618511</v>
       </c>
       <c r="T6">
-        <v>0.01396397122498251</v>
+        <v>0.01131568305681237</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.16234319750665</v>
+        <v>1.36117</v>
       </c>
       <c r="H7">
-        <v>1.16234319750665</v>
+        <v>4.08351</v>
       </c>
       <c r="I7">
-        <v>0.009908232992442265</v>
+        <v>0.01055426915924182</v>
       </c>
       <c r="J7">
-        <v>0.009908232992442265</v>
+        <v>0.01055426915924182</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.3581184800661</v>
+        <v>11.465689</v>
       </c>
       <c r="N7">
-        <v>11.3581184800661</v>
+        <v>34.397067</v>
       </c>
       <c r="O7">
-        <v>0.1161000411492494</v>
+        <v>0.1125836808441207</v>
       </c>
       <c r="P7">
-        <v>0.1161000411492494</v>
+        <v>0.1279391038575984</v>
       </c>
       <c r="Q7">
-        <v>13.2020317517794</v>
+        <v>15.60675189613</v>
       </c>
       <c r="R7">
-        <v>13.2020317517794</v>
+        <v>140.46076706517</v>
       </c>
       <c r="S7">
-        <v>0.001150346258138898</v>
+        <v>0.001188238470567027</v>
       </c>
       <c r="T7">
-        <v>0.001150346258138898</v>
+        <v>0.001350303738105287</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.16234319750665</v>
+        <v>1.36117</v>
       </c>
       <c r="H8">
-        <v>1.16234319750665</v>
+        <v>4.08351</v>
       </c>
       <c r="I8">
-        <v>0.009908232992442265</v>
+        <v>0.01055426915924182</v>
       </c>
       <c r="J8">
-        <v>0.009908232992442265</v>
+        <v>0.01055426915924182</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.16045817192198</v>
+        <v>1.399706666666667</v>
       </c>
       <c r="N8">
-        <v>1.16045817192198</v>
+        <v>4.199120000000001</v>
       </c>
       <c r="O8">
-        <v>0.01186193309645248</v>
+        <v>0.01374397374945266</v>
       </c>
       <c r="P8">
-        <v>0.01186193309645248</v>
+        <v>0.01561853078317749</v>
       </c>
       <c r="Q8">
-        <v>1.348850662124516</v>
+        <v>1.905238723466667</v>
       </c>
       <c r="R8">
-        <v>1.348850662124516</v>
+        <v>17.1471485112</v>
       </c>
       <c r="S8">
-        <v>0.0001175307968604133</v>
+        <v>0.0001450575982692774</v>
       </c>
       <c r="T8">
-        <v>0.0001175307968604133</v>
+        <v>0.0001648421777575592</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.16234319750665</v>
+        <v>1.36117</v>
       </c>
       <c r="H9">
-        <v>1.16234319750665</v>
+        <v>4.08351</v>
       </c>
       <c r="I9">
-        <v>0.009908232992442265</v>
+        <v>0.01055426915924182</v>
       </c>
       <c r="J9">
-        <v>0.009908232992442265</v>
+        <v>0.01055426915924182</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>23.2389097859197</v>
+        <v>26.364677</v>
       </c>
       <c r="N9">
-        <v>23.2389097859197</v>
+        <v>79.094031</v>
       </c>
       <c r="O9">
-        <v>0.2375427221633693</v>
+        <v>0.2588795475724425</v>
       </c>
       <c r="P9">
-        <v>0.2375427221633693</v>
+        <v>0.2941884389917637</v>
       </c>
       <c r="Q9">
-        <v>27.01158870713448</v>
+        <v>35.88680739209001</v>
       </c>
       <c r="R9">
-        <v>27.01158870713448</v>
+        <v>322.98126652881</v>
       </c>
       <c r="S9">
-        <v>0.002353628636853642</v>
+        <v>0.002732284424902305</v>
       </c>
       <c r="T9">
-        <v>0.002353628636853642</v>
+        <v>0.003104943968656265</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.16234319750665</v>
+        <v>1.36117</v>
       </c>
       <c r="H10">
-        <v>1.16234319750665</v>
+        <v>4.08351</v>
       </c>
       <c r="I10">
-        <v>0.009908232992442265</v>
+        <v>0.01055426915924182</v>
       </c>
       <c r="J10">
-        <v>0.009908232992442265</v>
+        <v>0.01055426915924182</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.7798056335924</v>
+        <v>25.94195566666667</v>
       </c>
       <c r="N10">
-        <v>25.7798056335924</v>
+        <v>77.825867</v>
       </c>
       <c r="O10">
-        <v>0.2635151675986313</v>
+        <v>0.2547287700938277</v>
       </c>
       <c r="P10">
-        <v>0.2635151675986313</v>
+        <v>0.2894715320036049</v>
       </c>
       <c r="Q10">
-        <v>29.96498171124974</v>
+        <v>35.31141179479668</v>
       </c>
       <c r="R10">
-        <v>29.96498171124974</v>
+        <v>317.80270615317</v>
       </c>
       <c r="S10">
-        <v>0.002610969677609712</v>
+        <v>0.002688476002172886</v>
       </c>
       <c r="T10">
-        <v>0.002610969677609712</v>
+        <v>0.003055160462704128</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.16234319750665</v>
+        <v>1.36117</v>
       </c>
       <c r="H11">
-        <v>1.16234319750665</v>
+        <v>4.08351</v>
       </c>
       <c r="I11">
-        <v>0.009908232992442265</v>
+        <v>0.01055426915924182</v>
       </c>
       <c r="J11">
-        <v>0.009908232992442265</v>
+        <v>0.01055426915924182</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>36.2931511189976</v>
+        <v>36.6694545</v>
       </c>
       <c r="N11">
-        <v>36.2931511189976</v>
+        <v>73.338909</v>
       </c>
       <c r="O11">
-        <v>0.3709801359922975</v>
+        <v>0.3600640277401564</v>
       </c>
       <c r="P11">
-        <v>0.3709801359922975</v>
+        <v>0.2727823943638554</v>
       </c>
       <c r="Q11">
-        <v>42.18509731924772</v>
+        <v>49.91336138176501</v>
       </c>
       <c r="R11">
-        <v>42.18509731924772</v>
+        <v>299.48016829059</v>
       </c>
       <c r="S11">
-        <v>0.0036757576229796</v>
+        <v>0.003800212663330325</v>
       </c>
       <c r="T11">
-        <v>0.0036757576229796</v>
+        <v>0.002879018812018579</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>39.0814976665631</v>
+        <v>44.98903266666667</v>
       </c>
       <c r="H12">
-        <v>39.0814976665631</v>
+        <v>134.967098</v>
       </c>
       <c r="I12">
-        <v>0.3331447935554168</v>
+        <v>0.3488369270391816</v>
       </c>
       <c r="J12">
-        <v>0.3331447935554168</v>
+        <v>0.3488369270391816</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.3581184800661</v>
+        <v>11.465689</v>
       </c>
       <c r="N12">
-        <v>11.3581184800661</v>
+        <v>34.397067</v>
       </c>
       <c r="O12">
-        <v>0.1161000411492494</v>
+        <v>0.1125836808441207</v>
       </c>
       <c r="P12">
-        <v>0.1161000411492494</v>
+        <v>0.1279391038575984</v>
       </c>
       <c r="Q12">
-        <v>443.8922808752505</v>
+        <v>515.8302569668407</v>
       </c>
       <c r="R12">
-        <v>443.8922808752505</v>
+        <v>4642.472312701567</v>
       </c>
       <c r="S12">
-        <v>0.03867812424044209</v>
+        <v>0.03927334526042305</v>
       </c>
       <c r="T12">
-        <v>0.03867812424044209</v>
+        <v>0.04462988383783133</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>39.0814976665631</v>
+        <v>44.98903266666667</v>
       </c>
       <c r="H13">
-        <v>39.0814976665631</v>
+        <v>134.967098</v>
       </c>
       <c r="I13">
-        <v>0.3331447935554168</v>
+        <v>0.3488369270391816</v>
       </c>
       <c r="J13">
-        <v>0.3331447935554168</v>
+        <v>0.3488369270391816</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.16045817192198</v>
+        <v>1.399706666666667</v>
       </c>
       <c r="N13">
-        <v>1.16045817192198</v>
+        <v>4.199120000000001</v>
       </c>
       <c r="O13">
-        <v>0.01186193309645248</v>
+        <v>0.01374397374945266</v>
       </c>
       <c r="P13">
-        <v>0.01186193309645248</v>
+        <v>0.01561853078317749</v>
       </c>
       <c r="Q13">
-        <v>45.35244333811294</v>
+        <v>62.97144895041779</v>
       </c>
       <c r="R13">
-        <v>45.35244333811294</v>
+        <v>566.7430405537601</v>
       </c>
       <c r="S13">
-        <v>0.003951741252585828</v>
+        <v>0.004794405568066245</v>
       </c>
       <c r="T13">
-        <v>0.003951741252585828</v>
+        <v>0.005448320283270498</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>39.0814976665631</v>
+        <v>44.98903266666667</v>
       </c>
       <c r="H14">
-        <v>39.0814976665631</v>
+        <v>134.967098</v>
       </c>
       <c r="I14">
-        <v>0.3331447935554168</v>
+        <v>0.3488369270391816</v>
       </c>
       <c r="J14">
-        <v>0.3331447935554168</v>
+        <v>0.3488369270391816</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.2389097859197</v>
+        <v>26.364677</v>
       </c>
       <c r="N14">
-        <v>23.2389097859197</v>
+        <v>79.094031</v>
       </c>
       <c r="O14">
-        <v>0.2375427221633693</v>
+        <v>0.2588795475724425</v>
       </c>
       <c r="P14">
-        <v>0.2375427221633693</v>
+        <v>0.2941884389917637</v>
       </c>
       <c r="Q14">
-        <v>908.2113985718911</v>
+        <v>1186.121314799115</v>
       </c>
       <c r="R14">
-        <v>908.2113985718911</v>
+        <v>10675.09183319204</v>
       </c>
       <c r="S14">
-        <v>0.07913612113570739</v>
+        <v>0.09030674584846446</v>
       </c>
       <c r="T14">
-        <v>0.07913612113570739</v>
+        <v>0.1026237910283406</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>39.0814976665631</v>
+        <v>44.98903266666667</v>
       </c>
       <c r="H15">
-        <v>39.0814976665631</v>
+        <v>134.967098</v>
       </c>
       <c r="I15">
-        <v>0.3331447935554168</v>
+        <v>0.3488369270391816</v>
       </c>
       <c r="J15">
-        <v>0.3331447935554168</v>
+        <v>0.3488369270391816</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>25.7798056335924</v>
+        <v>25.94195566666667</v>
       </c>
       <c r="N15">
-        <v>25.7798056335924</v>
+        <v>77.825867</v>
       </c>
       <c r="O15">
-        <v>0.2635151675986313</v>
+        <v>0.2547287700938277</v>
       </c>
       <c r="P15">
-        <v>0.2635151675986313</v>
+        <v>0.2894715320036049</v>
       </c>
       <c r="Q15">
-        <v>1007.513413713692</v>
+        <v>1167.103490924885</v>
       </c>
       <c r="R15">
-        <v>1007.513413713692</v>
+        <v>10503.93141832397</v>
       </c>
       <c r="S15">
-        <v>0.08778870610836707</v>
+        <v>0.08885880138800105</v>
       </c>
       <c r="T15">
-        <v>0.08778870610836707</v>
+        <v>0.1009783596894616</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>39.0814976665631</v>
+        <v>44.98903266666667</v>
       </c>
       <c r="H16">
-        <v>39.0814976665631</v>
+        <v>134.967098</v>
       </c>
       <c r="I16">
-        <v>0.3331447935554168</v>
+        <v>0.3488369270391816</v>
       </c>
       <c r="J16">
-        <v>0.3331447935554168</v>
+        <v>0.3488369270391816</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>36.2931511189976</v>
+        <v>36.6694545</v>
       </c>
       <c r="N16">
-        <v>36.2931511189976</v>
+        <v>73.338909</v>
       </c>
       <c r="O16">
-        <v>0.3709801359922975</v>
+        <v>0.3600640277401564</v>
       </c>
       <c r="P16">
-        <v>0.3709801359922975</v>
+        <v>0.2727823943638554</v>
       </c>
       <c r="Q16">
-        <v>1418.390700769327</v>
+        <v>1649.723286369347</v>
       </c>
       <c r="R16">
-        <v>1418.390700769327</v>
+        <v>9898.339718216084</v>
       </c>
       <c r="S16">
-        <v>0.1235901008183144</v>
+        <v>0.1256036289742268</v>
       </c>
       <c r="T16">
-        <v>0.1235901008183144</v>
+        <v>0.09515657220027748</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>72.651336968907</v>
+        <v>77.26852533333333</v>
       </c>
       <c r="H17">
-        <v>72.651336968907</v>
+        <v>231.805576</v>
       </c>
       <c r="I17">
-        <v>0.6193062216430671</v>
+        <v>0.5991263500559777</v>
       </c>
       <c r="J17">
-        <v>0.6193062216430671</v>
+        <v>0.5991263500559777</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.3581184800661</v>
+        <v>11.465689</v>
       </c>
       <c r="N17">
-        <v>11.3581184800661</v>
+        <v>34.397067</v>
       </c>
       <c r="O17">
-        <v>0.1161000411492494</v>
+        <v>0.1125836808441207</v>
       </c>
       <c r="P17">
-        <v>0.1161000411492494</v>
+        <v>0.1279391038575984</v>
       </c>
       <c r="Q17">
-        <v>825.182493028052</v>
+        <v>885.9368809606212</v>
       </c>
       <c r="R17">
-        <v>825.182493028052</v>
+        <v>7973.431928645592</v>
       </c>
       <c r="S17">
-        <v>0.07190147781674627</v>
+        <v>0.06745184978000514</v>
       </c>
       <c r="T17">
-        <v>0.07190147781674627</v>
+        <v>0.07665168832363559</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>72.651336968907</v>
+        <v>77.26852533333333</v>
       </c>
       <c r="H18">
-        <v>72.651336968907</v>
+        <v>231.805576</v>
       </c>
       <c r="I18">
-        <v>0.6193062216430671</v>
+        <v>0.5991263500559777</v>
       </c>
       <c r="J18">
-        <v>0.6193062216430671</v>
+        <v>0.5991263500559777</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.16045817192198</v>
+        <v>1.399706666666667</v>
       </c>
       <c r="N18">
-        <v>1.16045817192198</v>
+        <v>4.199120000000001</v>
       </c>
       <c r="O18">
-        <v>0.01186193309645248</v>
+        <v>0.01374397374945266</v>
       </c>
       <c r="P18">
-        <v>0.01186193309645248</v>
+        <v>0.01561853078317749</v>
       </c>
       <c r="Q18">
-        <v>84.30883768662558</v>
+        <v>108.1532700325689</v>
       </c>
       <c r="R18">
-        <v>84.30883768662558</v>
+        <v>973.3794302931202</v>
       </c>
       <c r="S18">
-        <v>0.007346168967346836</v>
+        <v>0.008234376827774743</v>
       </c>
       <c r="T18">
-        <v>0.007346168967346836</v>
+        <v>0.009357473341362062</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>72.651336968907</v>
+        <v>77.26852533333333</v>
       </c>
       <c r="H19">
-        <v>72.651336968907</v>
+        <v>231.805576</v>
       </c>
       <c r="I19">
-        <v>0.6193062216430671</v>
+        <v>0.5991263500559777</v>
       </c>
       <c r="J19">
-        <v>0.6193062216430671</v>
+        <v>0.5991263500559777</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>23.2389097859197</v>
+        <v>26.364677</v>
       </c>
       <c r="N19">
-        <v>23.2389097859197</v>
+        <v>79.094031</v>
       </c>
       <c r="O19">
-        <v>0.2375427221633693</v>
+        <v>0.2588795475724425</v>
       </c>
       <c r="P19">
-        <v>0.2375427221633693</v>
+        <v>0.2941884389917637</v>
       </c>
       <c r="Q19">
-        <v>1688.337865646883</v>
+        <v>2037.159712679651</v>
       </c>
       <c r="R19">
-        <v>1688.337865646883</v>
+        <v>18334.43741411686</v>
       </c>
       <c r="S19">
-        <v>0.1471116857418051</v>
+        <v>0.1551015584412203</v>
       </c>
       <c r="T19">
-        <v>0.1471116857418051</v>
+        <v>0.176256045681801</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>72.651336968907</v>
+        <v>77.26852533333333</v>
       </c>
       <c r="H20">
-        <v>72.651336968907</v>
+        <v>231.805576</v>
       </c>
       <c r="I20">
-        <v>0.6193062216430671</v>
+        <v>0.5991263500559777</v>
       </c>
       <c r="J20">
-        <v>0.6193062216430671</v>
+        <v>0.5991263500559777</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>25.7798056335924</v>
+        <v>25.94195566666667</v>
       </c>
       <c r="N20">
-        <v>25.7798056335924</v>
+        <v>77.825867</v>
       </c>
       <c r="O20">
-        <v>0.2635151675986313</v>
+        <v>0.2547287700938277</v>
       </c>
       <c r="P20">
-        <v>0.2635151675986313</v>
+        <v>0.2894715320036049</v>
       </c>
       <c r="Q20">
-        <v>1872.937346079048</v>
+        <v>2004.496658626044</v>
       </c>
       <c r="R20">
-        <v>1872.937346079048</v>
+        <v>18040.46992763439</v>
       </c>
       <c r="S20">
-        <v>0.1631965827911479</v>
+        <v>0.1526147182805633</v>
       </c>
       <c r="T20">
-        <v>0.1631965827911479</v>
+        <v>0.1734300224144319</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>26</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>72.651336968907</v>
+        <v>77.26852533333333</v>
       </c>
       <c r="H21">
-        <v>72.651336968907</v>
+        <v>231.805576</v>
       </c>
       <c r="I21">
-        <v>0.6193062216430671</v>
+        <v>0.5991263500559777</v>
       </c>
       <c r="J21">
-        <v>0.6193062216430671</v>
+        <v>0.5991263500559777</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>36.2931511189976</v>
+        <v>36.6694545</v>
       </c>
       <c r="N21">
-        <v>36.2931511189976</v>
+        <v>73.338909</v>
       </c>
       <c r="O21">
-        <v>0.3709801359922975</v>
+        <v>0.3600640277401564</v>
       </c>
       <c r="P21">
-        <v>0.3709801359922975</v>
+        <v>0.2727823943638554</v>
       </c>
       <c r="Q21">
-        <v>2636.745951609759</v>
+        <v>2833.394673992764</v>
       </c>
       <c r="R21">
-        <v>2636.745951609759</v>
+        <v>17000.36804395658</v>
       </c>
       <c r="S21">
-        <v>0.229750306326021</v>
+        <v>0.2157238467264142</v>
       </c>
       <c r="T21">
-        <v>0.229750306326021</v>
+        <v>0.163431120294747</v>
       </c>
     </row>
   </sheetData>
